--- a/xlsx/世界卫生组织_intext.xlsx
+++ b/xlsx/世界卫生组织_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="573">
   <si>
     <t>世界卫生组织</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_世界卫生组织</t>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6</t>
   </si>
   <si>
-    <t>日內瓦</t>
+    <t>日内瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%8A%E7%A4%BE%E6%9C%83%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國經濟及社會理事會</t>
+    <t>联合国经济及社会理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>公共衛生</t>
+    <t>公共卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%94</t>
   </si>
   <si>
-    <t>身體</t>
+    <t>身体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>醫療</t>
+    <t>医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>國際標準</t>
+    <t>国际标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%AB%E7%94%9F%E5%A4%A7%E4%BC%9A</t>
@@ -149,19 +149,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>托克勞群島</t>
+    <t>托克劳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>世界衛生大會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1</t>
   </si>
   <si>
-    <t>世界衛生大會觀察員</t>
+    <t>世界卫生大会观察员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
@@ -179,61 +176,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>一個中國</t>
+    <t>一个中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E5%8F%B0%E5%8C%97</t>
   </si>
   <si>
-    <t>中華台北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1971%E5%B9%B4%E8%87%B3%E4%BB%8A%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%88%87%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94%E7%9A%84%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>1971年至今中華民國與世界衛生組織的關係</t>
+    <t>1971年至今中华民国与世界卫生组织的关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%8D%81%E5%AD%97%E5%9C%8B%E9%9A%9B%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>紅十字國際委員會</t>
+    <t>红十字国际委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%8D%81%E5%AD%97%E6%9C%83%E8%88%87%E7%B4%85%E6%96%B0%E6%9C%88%E6%9C%83%E5%9C%8B%E9%9A%9B%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>紅十字會與紅新月會國際聯合會</t>
+    <t>红十字会与红新月会国际联合会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E5%B9%B9%E4%BA%8B</t>
   </si>
   <si>
-    <t>總幹事</t>
+    <t>总干事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E7%90%86%E4%BC%9A</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%9F%B4%E7%BB%B4%E5%B0%94</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%BE%85</t>
   </si>
   <si>
-    <t>開羅</t>
+    <t>开罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9</t>
@@ -305,31 +302,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B0%BC%E6%8B%89</t>
   </si>
   <si>
-    <t>馬尼拉</t>
+    <t>马尼拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>蘇丹</t>
+    <t>苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
+    <t>利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E9%87%8C</t>
   </si>
   <si>
-    <t>索馬里</t>
+    <t>索马里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%92%92%E5%93%88%E6%8B%89</t>
@@ -353,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>中東地區</t>
+    <t>中东地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%92%BE</t>
   </si>
   <si>
-    <t>老撾</t>
+    <t>老挝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
@@ -407,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B3%B6%E5%AE%8F</t>
   </si>
   <si>
-    <t>中島宏</t>
+    <t>中岛宏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%8D%BE%E9%83%81</t>
   </si>
   <si>
-    <t>李鍾郁</t>
+    <t>李锺郁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -485,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E9%A6%AE%E5%AF%8C%E7%8F%8D</t>
   </si>
   <si>
-    <t>陳馮富珍</t>
+    <t>陈冯富珍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B411%E6%9C%88</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E9%AB%93%E7%81%B0%E8%B3%AA%E7%82%8E</t>
   </si>
   <si>
-    <t>脊髓灰質炎</t>
+    <t>脊髓灰质炎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SARS</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8E%9F%E5%AD%90%E8%83%BD%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>國際原子能總署</t>
+    <t>国际原子能总署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Women_in_Europe_for_a_Common_Future</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B3%B6%E7%AC%AC%E4%B8%80%E6%A0%B8%E9%9B%BB%E5%BB%A0%E4%BA%8B%E6%95%85</t>
   </si>
   <si>
-    <t>福島第一核電廠事故</t>
+    <t>福岛第一核电厂事故</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E7%90%83%E5%B0%8F%E5%A7%90</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85</t>
   </si>
   <si>
-    <t>傳染病</t>
+    <t>传染病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E4%B9%B1</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9A%B4%E9%87%8D%E6%80%A5%E6%80%A7%E5%91%BC%E5%90%B8%E9%81%93%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>嚴重急性呼吸道症候群</t>
+    <t>严重急性呼吸道症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E4%BA%BA%E5%AE%89%E5%85%A8</t>
@@ -659,15 +656,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%8D%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>公共卫生</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E5%8F%91%E5%B1%95</t>
   </si>
   <si>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8%E8%88%87%E5%81%A5%E5%BA%B7</t>
   </si>
   <si>
-    <t>Template talk-職業安全與健康</t>
+    <t>Template talk-职业安全与健康</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E5%AE%89%E5%85%A8%E4%B8%8E%E5%81%A5%E5%BA%B7</t>
@@ -725,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>職業衛生</t>
+    <t>职业卫生</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Process_safety_management</t>
@@ -785,9 +779,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
   </si>
   <si>
-    <t>联合国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%C2%B7%E5%8F%A4%E7%89%B9%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
@@ -839,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國大會</t>
+    <t>联合国大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -857,25 +848,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
+    <t>联合国安全理事会否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國秘書處</t>
+    <t>联合国秘书处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際法院</t>
+    <t>国际法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%A8%97%E7%AE%A1%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國託管理事會</t>
+    <t>联合国讬管理事会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_specialized_agencies_of_the_United_Nations</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國糧食及農業組織</t>
+    <t>联合国粮食及农业组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
@@ -899,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E4%BA%8B%E5%8B%99%E9%AB%98%E7%B4%9A%E5%B0%88%E5%93%A1%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國人權事務高級專員辦事處</t>
+    <t>联合国人权事务高级专员办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Capital_Development_Fund</t>
@@ -911,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E6%B3%95%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國國際貿易法委員會</t>
+    <t>联合国国际贸易法委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%B4%B8%E6%98%93%E5%92%8C%E5%8F%91%E5%B1%95%E4%BC%9A%E8%AE%AE</t>
@@ -923,13 +914,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國開發計劃署</t>
+    <t>联合国开发计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%92%B0%E5%A2%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國環境署</t>
+    <t>联合国环境署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNEP_OzonAction</t>
@@ -947,31 +938,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%8F%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>聯合國人口基金</t>
+    <t>联合国人口基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%B1%85%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國人居署</t>
+    <t>联合国人居署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9B%A3%E6%B0%91%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國難民署</t>
+    <t>联合国难民署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權理事會</t>
+    <t>联合国人权理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%92%E7%AB%A5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國兒童基金會</t>
+    <t>联合国儿童基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Institute_for_Disarmament_Research</t>
@@ -995,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聯合國大學</t>
+    <t>联合国大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNU-OP</t>
@@ -1037,13 +1028,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B3%A7%E9%A3%9F%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>世界糧食計劃署</t>
+    <t>世界粮食计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%84%9B%E6%BB%8B%E7%97%85%E8%81%AF%E5%90%88%E8%A6%8F%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國愛滋病聯合規劃署</t>
+    <t>联合国爱滋病联合规划署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Interregional_Crime_and_Justice_Research_Institute</t>
@@ -1055,13 +1046,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A4%BE%E6%9C%83%E7%99%BC%E5%B1%95%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>聯合國社會發展研究所</t>
+    <t>联合国社会发展研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際民用航空組織</t>
+    <t>国际民用航空组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Fund_for_Agricultural_Development</t>
@@ -1073,19 +1064,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B5%B7%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際海事組織</t>
+    <t>国际海事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E5%B0%88%E9%96%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>政府間氣候變化專門委員會</t>
+    <t>政府间气候变化专门委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E4%BF%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際電信聯盟</t>
+    <t>国际电信联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Development_Assistance_Framework</t>
@@ -1097,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E8%82%B2%E3%80%81%E7%A7%91%E5%AD%B8%E5%8F%8A%E6%96%87%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教育、科學及文化組織</t>
+    <t>联合国教育、科学及文化组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Fund_for_International_Partnerships_(UNFIP)</t>
@@ -1127,31 +1118,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%9C%8B%E9%83%B5%E6%94%BF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>萬國郵政聯盟</t>
+    <t>万国邮政联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界智慧財產權組織</t>
+    <t>世界智慧财产权组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%A3%E8%B1%A1%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界氣象組織</t>
+    <t>世界气象组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
@@ -1163,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%95%8F%E9%A1%8C%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>前南斯拉夫問題國際刑事法庭</t>
+    <t>前南斯拉夫问题国际刑事法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>獅子山特別法庭</t>
+    <t>狮子山特别法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Special_Panels_of_the_Dili_District_Court</t>
@@ -1229,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E9%81%93%E4%BA%8B%E5%8B%99%E5%8D%94%E8%AA%BF%E5%BB%B3</t>
   </si>
   <si>
-    <t>聯合國人道事務協調廳</t>
+    <t>联合国人道事务协调厅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_Disarmament_Affairs</t>
@@ -1241,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%AF%92%E5%93%81%E5%92%8C%E7%8A%AF%E7%BD%AA%E5%95%8F%E9%A1%8C%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>聯合國毒品和犯罪問題辦公室</t>
+    <t>联合国毒品和犯罪问题办公室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_the_High_Representative_for_the_Least_Developed_Countries,_Landlocked_Developing_Countries_and_Small_Island_Developing_States</t>
@@ -1265,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B8%BD%E9%83%A8%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>聯合國總部大樓</t>
+    <t>联合国总部大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E5%9B%BD%E5%AE%AB</t>
@@ -1289,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A5%88%E6%B4%9B%E6%AF%94%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國奈洛比辦事處</t>
+    <t>联合国奈洛比办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_organizations_by_location</t>
@@ -1301,25 +1289,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%8D%80%E5%9F%9F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>聯合國區域集團</t>
+    <t>联合国区域集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國安全理事會常任理事國</t>
+    <t>联合国安全理事会常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_Union_and_the_United_Nations</t>
@@ -1337,13 +1325,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%AD%A6%E5%AF%9F</t>
@@ -1355,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%B1%E5%90%8C%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>聯合國共同宣言</t>
+    <t>联合国共同宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%B4%E6%8C%81%E5%92%8C%E5%B9%B3%E8%A1%8C%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -1367,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8C%81%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>維持和平</t>
+    <t>维持和平</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_United_Nations_peacekeeping</t>
@@ -1391,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國決議</t>
+    <t>联合国决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_resolutions_at_the_sixty-sixth_session_of_the_United_Nations_General_Assembly</t>
@@ -1409,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會決議</t>
+    <t>联合国安全理事会决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_Security_Council_resolutions_concerning_Cyprus</t>
@@ -1451,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%9C%9D%E9%AE%AE%E7%9B%B8%E9%97%9C%E6%B1%BA%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國安全理事會朝鮮相關決議列表</t>
+    <t>联合国安全理事会朝鲜相关决议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_the_UN_resolutions_concerning_Palestine</t>
@@ -1517,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>聯合國憲章</t>
+    <t>联合国宪章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Global_Compact</t>
@@ -1541,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%80%9A%E8%A1%8C%E8%AD%89</t>
   </si>
   <si>
-    <t>聯合國通行證</t>
+    <t>联合国通行证</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Official_languages_of_the_United_Nations</t>
@@ -1559,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%95%A6%E6%A3%AE%E6%9E%97%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>布列敦森林體系</t>
+    <t>布列敦森林体系</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Delivering_as_One</t>
@@ -1577,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>千禧高峰會</t>
+    <t>千禧高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B9%B4%E5%8F%91%E5%B1%95%E7%9B%AE%E6%A0%87</t>
@@ -1589,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>聯合國改革</t>
+    <t>联合国改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%AE%AE%E4%BC%9A%E5%A4%A7%E4%BC%9A</t>
@@ -1601,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BA%AA%E5%BF%B5%E6%B4%BB%E5%8A%A8</t>
@@ -1613,7 +1601,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>聯合國日</t>
+    <t>联合国日</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_television_film_series</t>
@@ -1625,7 +1613,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%8C%96%E4%B8%AD%E7%9A%84%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>大眾文化中的聯合國</t>
+    <t>大众文化中的联合国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comprehensive_Nuclear-Test-Ban_Treaty_Organization</t>
@@ -1637,13 +1625,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8E%9F%E5%AD%90%E8%83%BD%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>國際原子能機構</t>
+    <t>国际原子能机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際刑事法院</t>
+    <t>国际刑事法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B5%B7%E5%BA%95%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -1661,19 +1649,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>禁止化學武器組織</t>
+    <t>禁止化学武器组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1691,7 +1679,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1709,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1727,13 +1715,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2754,7 +2742,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -2780,10 +2768,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2809,10 +2797,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -2838,10 +2826,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2867,10 +2855,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2896,10 +2884,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2925,10 +2913,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2954,10 +2942,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -2983,10 +2971,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3012,10 +3000,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3041,10 +3029,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3070,10 +3058,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3099,10 +3087,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3128,10 +3116,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3157,10 +3145,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3186,10 +3174,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3215,10 +3203,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3244,10 +3232,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3273,10 +3261,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3302,10 +3290,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3331,10 +3319,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3360,10 +3348,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -3389,10 +3377,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3418,10 +3406,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3447,10 +3435,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3476,10 +3464,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3505,10 +3493,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3534,10 +3522,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3563,10 +3551,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3592,10 +3580,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3621,10 +3609,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3650,10 +3638,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3679,10 +3667,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3708,10 +3696,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3737,10 +3725,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3766,10 +3754,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3795,10 +3783,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3824,10 +3812,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3853,10 +3841,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3882,10 +3870,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3911,10 +3899,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3940,10 +3928,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3969,10 +3957,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3998,10 +3986,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4027,10 +4015,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4056,10 +4044,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4085,10 +4073,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4114,10 +4102,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4143,10 +4131,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4172,10 +4160,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4201,10 +4189,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4230,10 +4218,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4259,10 +4247,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4288,10 +4276,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4317,10 +4305,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4346,10 +4334,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -4375,10 +4363,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F79" t="s">
         <v>133</v>
-      </c>
-      <c r="F79" t="s">
-        <v>134</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4404,10 +4392,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4433,10 +4421,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4462,10 +4450,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4491,10 +4479,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4520,10 +4508,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4549,10 +4537,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4578,10 +4566,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4607,10 +4595,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4636,10 +4624,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4665,10 +4653,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4694,10 +4682,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4723,10 +4711,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4752,10 +4740,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4781,10 +4769,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4810,10 +4798,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4839,10 +4827,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4868,10 +4856,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -4897,10 +4885,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4926,10 +4914,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4955,10 +4943,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4984,10 +4972,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>186</v>
+      </c>
+      <c r="F100" t="s">
         <v>187</v>
-      </c>
-      <c r="F100" t="s">
-        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5013,10 +5001,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5042,10 +5030,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>182</v>
+      </c>
+      <c r="F102" t="s">
         <v>183</v>
-      </c>
-      <c r="F102" t="s">
-        <v>184</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5071,10 +5059,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5100,10 +5088,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5129,10 +5117,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5158,10 +5146,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5187,10 +5175,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5216,10 +5204,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5245,10 +5233,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5274,10 +5262,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -5303,10 +5291,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5332,10 +5320,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5361,10 +5349,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5390,10 +5378,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5419,10 +5407,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>6</v>
@@ -5448,10 +5436,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5477,10 +5465,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5506,10 +5494,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5535,10 +5523,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5564,10 +5552,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5593,10 +5581,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5622,10 +5610,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5651,10 +5639,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5680,10 +5668,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5709,10 +5697,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5738,10 +5726,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5767,10 +5755,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5796,10 +5784,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5825,10 +5813,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5854,10 +5842,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5883,10 +5871,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="G131" t="n">
         <v>6</v>
@@ -5912,10 +5900,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5941,10 +5929,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -5970,10 +5958,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5999,10 +5987,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6028,10 +6016,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6057,10 +6045,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6086,10 +6074,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6115,10 +6103,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6144,10 +6132,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>13</v>
@@ -6173,10 +6161,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6202,10 +6190,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -6231,10 +6219,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>6</v>
@@ -6260,10 +6248,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6318,10 +6306,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6347,10 +6335,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6376,10 +6364,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6405,10 +6393,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6434,10 +6422,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6463,10 +6451,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6492,10 +6480,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6521,10 +6509,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6550,10 +6538,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6579,10 +6567,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6608,10 +6596,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6637,10 +6625,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6666,10 +6654,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6695,10 +6683,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6724,10 +6712,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6753,10 +6741,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6782,10 +6770,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6811,10 +6799,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6840,10 +6828,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6869,10 +6857,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6898,10 +6886,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6927,10 +6915,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6956,10 +6944,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6985,10 +6973,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7014,10 +7002,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7043,10 +7031,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7072,10 +7060,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7101,10 +7089,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7130,10 +7118,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7159,10 +7147,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7188,10 +7176,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7217,10 +7205,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7246,10 +7234,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7275,10 +7263,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7304,10 +7292,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7333,10 +7321,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7362,10 +7350,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7391,10 +7379,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7420,10 +7408,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7449,10 +7437,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7478,10 +7466,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7507,10 +7495,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7536,10 +7524,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7565,10 +7553,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7594,10 +7582,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7623,10 +7611,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
         <v>21</v>
@@ -7652,10 +7640,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7681,10 +7669,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7710,10 +7698,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7739,10 +7727,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7768,10 +7756,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7797,10 +7785,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7826,10 +7814,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7855,10 +7843,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7884,10 +7872,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7913,10 +7901,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7942,10 +7930,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7971,10 +7959,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8000,10 +7988,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8029,10 +8017,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8058,10 +8046,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8087,10 +8075,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8116,10 +8104,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8145,10 +8133,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8174,10 +8162,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8203,10 +8191,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8232,10 +8220,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8261,10 +8249,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8290,10 +8278,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8319,10 +8307,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8348,10 +8336,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8377,10 +8365,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8406,10 +8394,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8435,10 +8423,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8464,10 +8452,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8493,10 +8481,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>35</v>
@@ -8522,10 +8510,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8551,10 +8539,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8580,10 +8568,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>10</v>
@@ -8609,10 +8597,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8638,10 +8626,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8667,10 +8655,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8696,10 +8684,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8725,10 +8713,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8754,10 +8742,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8783,10 +8771,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8812,10 +8800,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8841,10 +8829,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8870,10 +8858,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8899,10 +8887,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8928,10 +8916,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>4</v>
@@ -8957,10 +8945,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>56</v>
+      </c>
+      <c r="F237" t="s">
         <v>57</v>
-      </c>
-      <c r="F237" t="s">
-        <v>58</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -8986,10 +8974,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9015,10 +9003,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9044,10 +9032,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9073,10 +9061,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9102,10 +9090,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9131,10 +9119,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9160,10 +9148,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9189,10 +9177,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9218,10 +9206,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9247,10 +9235,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9276,10 +9264,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9305,10 +9293,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9334,10 +9322,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9363,10 +9351,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9392,10 +9380,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9421,10 +9409,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9450,10 +9438,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9479,10 +9467,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9508,10 +9496,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9537,10 +9525,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9566,10 +9554,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9595,10 +9583,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9624,10 +9612,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9653,10 +9641,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9682,10 +9670,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9711,10 +9699,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9740,10 +9728,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9769,10 +9757,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9798,10 +9786,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9827,10 +9815,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9856,10 +9844,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9885,10 +9873,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9914,10 +9902,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9943,10 +9931,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9972,10 +9960,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10001,10 +9989,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10030,10 +10018,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10059,10 +10047,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10088,10 +10076,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10117,10 +10105,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10146,10 +10134,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10175,10 +10163,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10204,10 +10192,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10233,10 +10221,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10262,10 +10250,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10291,10 +10279,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10320,10 +10308,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G284" t="n">
         <v>3</v>
@@ -10349,10 +10337,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10378,10 +10366,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10407,10 +10395,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10436,10 +10424,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10465,10 +10453,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10494,10 +10482,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10523,10 +10511,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10552,10 +10540,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10581,10 +10569,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10610,10 +10598,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10639,10 +10627,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10668,10 +10656,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
